--- a/inst/extdata/tmadir/example_er.xlsx
+++ b/inst/extdata/tmadir/example_er.xlsx
@@ -1,44 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
     <sheet name="ER" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,13 +46,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -151,7 +131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -186,7 +165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -221,16 +199,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -352,282 +334,305 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="C2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="I1" t="str">
-        <v>3</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="K2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="B2" t="str">
-        <v>4</v>
-      </c>
-      <c r="C2" t="str">
+    </row>
+    <row r="3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="G2" t="str">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="H2" t="str">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J3">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>1</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2</v>
-      </c>
-      <c r="G6" t="str">
-        <v>3</v>
-      </c>
-      <c r="H6" t="str">
-        <v>3</v>
-      </c>
-      <c r="I6" t="str">
-        <v>3</v>
-      </c>
-      <c r="J6" t="str">
-        <v>4</v>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>4</v>
-      </c>
-      <c r="B7" t="str">
-        <v>4</v>
-      </c>
-      <c r="C7" t="str">
-        <v>5</v>
-      </c>
-      <c r="D7" t="str">
-        <v>5</v>
-      </c>
-      <c r="G7" t="str">
-        <v>6</v>
-      </c>
-      <c r="H7" t="str">
-        <v>6</v>
-      </c>
-      <c r="I7" t="str">
-        <v>7</v>
-      </c>
-      <c r="J7" t="str">
-        <v>7</v>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="C2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>7</v>
-      </c>
-      <c r="B1" t="str">
-        <v>9</v>
-      </c>
-      <c r="C1" t="str">
-        <v>99</v>
-      </c>
-      <c r="D1" t="str">
-        <v>99</v>
-      </c>
-      <c r="G1" t="str">
-        <v>2</v>
-      </c>
-      <c r="H1" t="str">
-        <v>7</v>
-      </c>
-      <c r="I1" t="str">
-        <v>9</v>
-      </c>
-      <c r="J1" t="str">
-        <v>7</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>3</v>
-      </c>
-      <c r="B2" t="str">
-        <v>99</v>
-      </c>
-      <c r="C2" t="str">
-        <v>9</v>
-      </c>
-      <c r="D2" t="str">
-        <v>9</v>
-      </c>
-      <c r="G2" t="str">
-        <v>9</v>
-      </c>
-      <c r="H2" t="str">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2</v>
-      </c>
-      <c r="G6" t="str">
-        <v>3</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
-        <v>99</v>
-      </c>
-      <c r="J6" t="str">
-        <v>3</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>1</v>
-      </c>
-      <c r="B7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <v>3</v>
-      </c>
-      <c r="D7" t="str">
-        <v>99</v>
-      </c>
-      <c r="G7" t="str">
-        <v>7</v>
-      </c>
-      <c r="H7" t="str">
-        <v>9</v>
-      </c>
-      <c r="I7" t="str">
-        <v>7</v>
-      </c>
-      <c r="J7" t="str">
-        <v>2</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>